--- a/Validierung/coverage/ctm_4_coverage.xlsx
+++ b/Validierung/coverage/ctm_4_coverage.xlsx
@@ -856,11 +856,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="400981352"/>
-        <c:axId val="400982528"/>
+        <c:axId val="390032448"/>
+        <c:axId val="390033232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="400981352"/>
+        <c:axId val="390032448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -903,7 +903,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400982528"/>
+        <c:crossAx val="390033232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -911,9 +911,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="400982528"/>
+        <c:axId val="390033232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -962,7 +963,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400981352"/>
+        <c:crossAx val="390032448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
